--- a/tests/test_import/link_files_for_import_tests/study_merge_link_file.xlsx
+++ b/tests/test_import/link_files_for_import_tests/study_merge_link_file.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>patient</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>datetime onset stroke</t>
-  </si>
-  <si>
-    <t>family disease history</t>
   </si>
   <si>
     <t>patient race</t>
@@ -86,8 +83,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,8 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -424,7 +430,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F23:F24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,7 +489,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -491,7 +497,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -499,7 +505,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -507,21 +513,22 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>